--- a/HKR.xlsx
+++ b/HKR.xlsx
@@ -4,64 +4,212 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7130" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="error" sheetId="2" r:id="rId2"/>
+    <sheet name="修改头像" sheetId="1" r:id="rId1"/>
+    <sheet name="全国【china】" sheetId="7" r:id="rId2"/>
+    <sheet name="北京" sheetId="8" r:id="rId3"/>
+    <sheet name="上海" sheetId="9" r:id="rId4"/>
+    <sheet name="甘肃" sheetId="10" r:id="rId5"/>
+    <sheet name="新疆" sheetId="11" r:id="rId6"/>
+    <sheet name="三亚" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password </t>
-  </si>
-  <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>jason</t>
-  </si>
-  <si>
-    <t>Student Login</t>
-  </si>
-  <si>
-    <t>不再爱了</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>jason12345</t>
-  </si>
-  <si>
-    <t>账户名错误或密码错误!别瞎弄!</t>
-  </si>
-  <si>
-    <t>unimportant</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="53">
+  <si>
+    <t>url地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:8081/HKR/UserServlet?method=changePicture </t>
+  </si>
+  <si>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>请求参数</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>用户唯一编号</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>图片唯一编号</t>
+  </si>
+  <si>
+    <t>演示例：</t>
+  </si>
+  <si>
+    <t>{"uid":"ffd73bf04aab43c587eaacb608f2ff68","pid":"4as5fa1sg1a8sdf1a7gqw8ega8f1a8"}</t>
+  </si>
+  <si>
+    <t>响应参数</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>修改后头像存储路径</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>布尔类型</t>
+  </si>
+  <si>
+    <t>修改的成功与否
+true:修改成功
+false:修改失败</t>
+  </si>
+  <si>
+    <t>演示案例：</t>
+  </si>
+  <si>
+    <t>{"path":"img/picture/meng.jpg","status":true}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://flash.weather.com.cn/wmaps/xml/china.xml </t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>state1</t>
+  </si>
+  <si>
+    <t>windState</t>
+  </si>
+  <si>
+    <t>风力</t>
+  </si>
+  <si>
+    <t>stateDetailed</t>
+  </si>
+  <si>
+    <t>tem1</t>
+  </si>
+  <si>
+    <t>最低温度</t>
+  </si>
+  <si>
+    <t>tem2</t>
+  </si>
+  <si>
+    <t>最高温度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;city quName="黑龙江" pyName="heilongjiang" cityname="哈尔滨" state1="1" state2="0" stateDetailed="多云转晴" tem1="7" tem2="-2" windState="西风微风级"/&gt;
+&lt;city quName="吉林" pyName="jilin" cityname="长春" state1="0" state2="0" stateDetailed="晴" tem1="8" tem2="-3" windState="西风微风级"/&gt;
+</t>
+  </si>
+  <si>
+    <t>http://flash.weather.com.cn/wmaps/xml/beijing.xml</t>
+  </si>
+  <si>
+    <t>fontColor</t>
+  </si>
+  <si>
+    <t>字体颜色</t>
+  </si>
+  <si>
+    <t>temNow</t>
+  </si>
+  <si>
+    <t>现在温度</t>
+  </si>
+  <si>
+    <t>humidity</t>
+  </si>
+  <si>
+    <t>湿度</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>连接代码</t>
+  </si>
+  <si>
+    <t>&lt;city cityX="232" cityY="190.8" cityname="延庆" centername="延庆" fontColor="FFFFFF" pyName="yanqing" state1="0" state2="0" stateDetailed="晴" tem1="11" tem2="-2" temNow="4" windState="东南风转北风微风级" windDir="西南风" windPower="2级" humidity="45%" time="09:00" url="101010800"/&gt;
+&lt;city cityX="394" cityY="157" cityname="密云" centername="密云" fontColor="FFFFFF" pyName="miyun" state1="0" state2="0" stateDetailed="晴" tem1="13" tem2="-1" temNow="9" windState="东北风微风级" windDir="东风" windPower="2级" humidity="32%" time="09:00" url="101011300"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://flash.weather.com.cn/wmaps/xml/shanghai.xml?$format=xml </t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;city cityX="225" cityY="184" cityname="嘉定" centername="嘉定" fontColor="FFFFFF" pyName="jiading" state1="2" state2="7" stateDetailed="阴转小雨" tem1="20" tem2="13" temNow="18" windState="北风3-4级" windDir="北风" windPower="3级" humidity="54%" time="11:00" url="101020500"/&gt;
+&lt;city cityX="277" cityY="173" cityname="宝山" centername="宝山" fontColor="FFFFFF" pyName="baoshan" state1="2" state2="7" stateDetailed="阴转小雨" tem1="21" tem2="15" temNow="19" windState="北风3-4级转4-5级" windDir="北风" windPower="2级" humidity="58%" time="11:00" url="101020300"/&gt;
+&lt;city cityX="289" cityY="224" cityname="市中心" centername="市中心" fontColor="FFFF00" pyName="shizhongxin" state1="2" state2="7" stateDetailed="阴转小雨" tem1="21" tem2="15" temNow="18" windState="北风3-4级" windDir="西风" windPower="1级" humidity="59%" time="11:00" url="101020100"/&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://flash.weather.com.cn/wmaps/xml/gansu.xml?$format=xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;city cityX="164" cityY="118" cityname="酒泉" centername="酒泉" fontColor="FFFFFF" pyName="jiuquan" state1="2" state2="1" stateDetailed="阴转多云" tem1="11" tem2="-1" temNow="5" windState="东风转西北风微风级" windDir="西北风" windPower="2级" humidity="36%" time="11:00" url="101160801"/&gt;
+&lt;city cityX="235" cityY="166" cityname="嘉峪关" centername="嘉峪关" fontColor="FFFFFF" pyName="jiayuguan" state1="1" state2="1" stateDetailed="多云" tem1="10" tem2="-1" temNow="暂无实况" windState="东风转西风微风级" windDir="暂无实况" windPower="暂无实况" humidity="暂无实况" time="11:00" url="101161401"/&gt;
+&lt;city cityX="290" cityY="190" cityname="张掖" centername="张掖" fontColor="FFFFFF" pyName="zhangye" state1="1" state2="1" stateDetailed="多云" tem1="14" tem2="1" temNow="7" windState="西北风转北风微风级" windDir="西北风" windPower="2级" humidity="34%" time="11:00" url="101160701"/&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://flash.weather.com.cn/wmaps/xml/xinjiang.xml?$format=xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;city cityX="394" cityY="92" cityname="阿勒泰" centername="阿勒泰" fontColor="FFFFFF" pyName="aletai" state1="0" state2="0" stateDetailed="晴" tem1="17" tem2="-0" temNow="9" windState="微风" windDir="西北风" windPower="1级" humidity="35%" time="11:00" url="101131401"/&gt;
+&lt;city cityX="289" cityY="107" cityname="塔城" centername="塔城" fontColor="FFFFFF" pyName="tacheng" state1="0" state2="0" stateDetailed="晴" tem1="20" tem2="3" temNow="13" windState="微风" windDir="东风" windPower="3级" humidity="26%" time="11:00" url="101131101"/&gt;
+&lt;city cityX="325" cityY="147" cityname="克拉玛依" centername="克拉玛依" fontColor="FFFFFF" pyName="kelamayi" state1="0" state2="2" stateDetailed="晴转阴" tem1="17" tem2="6" temNow="12" windState="微风" windDir="东南风" windPower="1级" humidity="32%" time="11:00" url="101130201"/&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://flash.weather.com.cn/wmaps/xml/hainan.xml?$format=xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;city cityX="173.65" cityY="218.15" cityname="昌江" centername="昌江" fontColor="FFFFFF" pyName="changjiang" state1="8" state2="1" stateDetailed="中雨转多云" tem1="30" tem2="22" temNow="29" windState="微风" windDir="东南风" windPower="1级" humidity="77%" time="11:00" url="101310206"/&gt;
+&lt;city cityX="130" cityY="270.9" cityname="东方" centername="东方" fontColor="FFFFFF" pyName="dongfang" state1="8" state2="1" stateDetailed="中雨转多云" tem1="29" tem2="24" temNow="27" windState="微风" windDir="西南风" windPower="2级" humidity="86%" time="11:00" url="101310202"/&gt;
+&lt;city cityX="165.45" cityY="349.05" cityname="乐东" centername="乐东" fontColor="FFFFFF" pyName="ledong" state1="9" state2="1" stateDetailed="大雨转多云" tem1="30" tem2="23" temNow="暂无实况" windState="微风" windDir="暂无实况" windPower="暂无实况" humidity="暂无实况" time="11:00" url="101310221"/&gt;
+&lt;city cityX="227" cityY="390" cityname="三亚" centername="三亚" fontColor="FFFFFF" pyName="sanya" state1="7" state2="1" stateDetailed="小雨转多云" tem1="29" tem2="25" temNow="26" windState="东风3-4级" windDir="东风" windPower="2级" humidity="94%" time="11:00" url="101310201"/&gt;
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,9 +218,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,51 +272,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,14 +325,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,37 +392,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,152 +576,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -438,17 +601,72 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,17 +686,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,15 +714,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -521,6 +724,36 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,188 +771,189 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1069,65 +1303,200 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A1" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="25.7545454545455" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.7545454545455" style="7" customWidth="1"/>
-    <col min="3" max="3" width="25.7545454545455" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="6"/>
+    <col min="1" max="5" width="30.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49.5" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="42" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10">
-        <v>1234567</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10">
-        <v>1234567</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>4</v>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="42" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B19:C20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="http://localhost:8081/HKR/UserServlet?method=changePicture "/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1137,65 +1506,1436 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="5" width="30.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="42" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B19:C20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="http://flash.weather.com.cn/wmaps/xml/china.xml " tooltip="http://flash.weather.com.cn/wmaps/xml/china.xml "/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="5" width="30.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="42" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B22:C23"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="http://flash.weather.com.cn/wmaps/xml/beijing.xml" tooltip="http://flash.weather.com.cn/wmaps/xml/beijing.xml"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="5" width="30.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="42" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B23:C24"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://flash.weather.com.cn/wmaps/xml/shanghai.xml?$format=xml " tooltip="https://flash.weather.com.cn/wmaps/xml/shanghai.xml?$format=xml "/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="5" width="30.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="42" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B23:C24"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://flash.weather.com.cn/wmaps/xml/gansu.xml?$format=xml " tooltip="https://flash.weather.com.cn/wmaps/xml/gansu.xml?$format=xml "/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="5" width="30.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="42" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B23:C24"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://flash.weather.com.cn/wmaps/xml/xinjiang.xml?$format=xml " tooltip="https://flash.weather.com.cn/wmaps/xml/xinjiang.xml?$format=xml "/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="19.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="20.0909090909091" customWidth="1"/>
+    <col min="1" max="5" width="30.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="42" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="28" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1234567</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="28" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <v>1234567890</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B23:C24"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://flash.weather.com.cn/wmaps/xml/hainan.xml?$format=xml " tooltip="https://flash.weather.com.cn/wmaps/xml/hainan.xml?$format=xml "/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>